--- a/DerivingImpactValues.xlsx
+++ b/DerivingImpactValues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fellowship20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Undergrad\AIM\Didymos-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815253B0-28D0-4FE5-A83A-8F3C7FF60D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38B5E80-3C4E-497E-AB4A-408AEEB96599}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{74FBB8A4-85C7-4D28-A397-8DCB0E03DCCF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74FBB8A4-85C7-4D28-A397-8DCB0E03DCCF}"/>
   </bookViews>
   <sheets>
     <sheet name="DerivingConfigValue" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>vX (AU/day)</t>
   </si>
@@ -80,9 +78,6 @@
     <t>Z (AU/s)</t>
   </si>
   <si>
-    <t>vTheta (Radians/s)</t>
-  </si>
-  <si>
     <t>Theta (Radians)</t>
   </si>
   <si>
@@ -108,14 +103,21 @@
   </si>
   <si>
     <t>Table 2. Testing Values by Converting Table 1 Cylindrical Values to Cartesian to Compare</t>
+  </si>
+  <si>
+    <t>r*dTheta/dt (AU/s)</t>
+  </si>
+  <si>
+    <t>dTheta/dt (Radians/s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -375,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -408,9 +410,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +419,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -745,50 +749,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A860C00E-B630-4F63-9D9B-69884EA8F2B0}">
   <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="5.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -806,10 +810,10 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
@@ -818,9 +822,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>1.0221702981571399</v>
@@ -865,7 +869,7 @@
         <v>7.2985441781536927E-9</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -887,7 +891,7 @@
       <c r="H5" s="9">
         <v>-8.5489235215182902E-7</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="29">
         <f>POWER(POWER(C5,2) + POWER(D5,2), 0.5)</f>
         <v>1.001408036627327</v>
       </c>
@@ -912,29 +916,46 @@
         <v>-9.8945874091646873E-12</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I9" s="24" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M7" s="30">
+        <f>J4*M4</f>
+        <v>2.2730599434226528E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="M8" s="30">
+        <f>J5*M5</f>
+        <v>1.9879188900586011E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>0</v>
@@ -946,9 +967,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="19">
         <f>J4*COS(L4)</f>
@@ -975,7 +996,7 @@
         <v>6.3059421699247905E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1004,23 +1025,23 @@
         <v>-8.5489235215182902E-7</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="15"/>
@@ -1029,8 +1050,8 @@
       <c r="F19" s="15"/>
       <c r="G19" s="16"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="15"/>
@@ -1039,8 +1060,8 @@
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="15"/>
@@ -1049,26 +1070,26 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
     </row>
-    <row r="22" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="30" t="s">
+    <row r="22" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="15"/>
@@ -1077,8 +1098,8 @@
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="15"/>
@@ -1087,8 +1108,8 @@
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
     </row>
-    <row r="26" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="25" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="17"/>

--- a/DerivingImpactValues.xlsx
+++ b/DerivingImpactValues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Undergrad\AIM\Didymos-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlochridge22\Documents\AIM\Didymos-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38B5E80-3C4E-497E-AB4A-408AEEB96599}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E51D075-E07A-4339-B3A8-6E9B8385AE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74FBB8A4-85C7-4D28-A397-8DCB0E03DCCF}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <dimension ref="B2:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/DerivingImpactValues.xlsx
+++ b/DerivingImpactValues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlochridge22\Documents\AIM\Didymos-optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Undergrad\AIM\Didymos-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E51D075-E07A-4339-B3A8-6E9B8385AE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6B096-4436-4B40-B92C-24DE717335D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74FBB8A4-85C7-4D28-A397-8DCB0E03DCCF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>vX (AU/day)</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>vZ (AU/s)</t>
-  </si>
-  <si>
-    <t>Z (AU/s)</t>
   </si>
   <si>
     <t>Theta (Radians)</t>
@@ -747,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A860C00E-B630-4F63-9D9B-69884EA8F2B0}">
-  <dimension ref="B2:O26"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -767,12 +764,13 @@
     <col min="12" max="12" width="17.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.90625" style="1"/>
+    <col min="16" max="16" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -781,18 +779,18 @@
       <c r="G2" s="31"/>
       <c r="H2" s="31"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -810,21 +808,24 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5">
         <v>1.0221702981571399</v>
@@ -868,8 +869,12 @@
         <f>H4/(24*3600)</f>
         <v>7.2985441781536927E-9</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P4" s="30">
+        <f>J4*M4</f>
+        <v>2.2730599434226528E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
@@ -915,27 +920,14 @@
         <f>H5/(24*3600)</f>
         <v>-9.8945874091646873E-12</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="M6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="M7" s="30">
-        <f>J4*M4</f>
-        <v>2.2730599434226528E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
-      <c r="M8" s="30">
+      <c r="P5" s="30">
         <f>J5*M5</f>
         <v>1.9879188900586011E-7</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I9" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -944,18 +936,18 @@
       <c r="N9" s="31"/>
       <c r="O9" s="31"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>0</v>
@@ -967,9 +959,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="19">
         <f>J4*COS(L4)</f>
@@ -996,7 +988,7 @@
         <v>6.3059421699247905E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I12" s="7" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1019,7 @@
     </row>
     <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">

--- a/DerivingImpactValues.xlsx
+++ b/DerivingImpactValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Undergrad\AIM\Didymos-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6B096-4436-4B40-B92C-24DE717335D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFB4C4C-CADD-43CE-ACB8-400E23BA4A64}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74FBB8A4-85C7-4D28-A397-8DCB0E03DCCF}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Earth Moon BaryCenter, Sun body center</t>
   </si>
   <si>
-    <t>Dimorphos, Sun body center</t>
-  </si>
-  <si>
     <t xml:space="preserve"> X = 1.022170298157143E+00 Y = 1.639822634888091E-01 Z =-5.541927402432133E-02</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Table 1. Cartesian Values for Dimorphos and Earth Provided With Conversion to Cylindrical</t>
   </si>
   <si>
-    <t>Dimorphos</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>dTheta/dt (Radians/s)</t>
+  </si>
+  <si>
+    <t>Didymos</t>
+  </si>
+  <si>
+    <t>Didymos, Sun body center</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A860C00E-B630-4F63-9D9B-69884EA8F2B0}">
   <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -770,7 +770,7 @@
   <sheetData>
     <row r="2" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -781,16 +781,16 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>0</v>
@@ -808,24 +808,24 @@
         <v>4</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5">
         <v>1.0221702981571399</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I9" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="31"/>
@@ -938,16 +938,16 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I10" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>17</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>0</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I11" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J11" s="19">
         <f>J4*COS(L4)</f>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="17" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -1072,7 +1072,7 @@
     </row>
     <row r="23" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="32" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="26" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
